--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syedm\Desktop\Team14Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A0C33-C139-48C6-BF7B-514D470ADEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10662868-ABAD-43A7-9345-CCE4F8504DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>Product Backlog - IL Marino(List of your features)</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Users can give feedback.</t>
+  </si>
+  <si>
+    <t>Making a Confirmation page upon successful reservation by visitor and generating a random unique string as a reservation id, which can be used to modify reservation.</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,8 +387,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1481,10 +1484,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -1502,7 +1505,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1517,17 +1520,17 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2643,22 +2646,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -4150,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4164,22 +4167,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -4223,15 +4226,13 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>31</v>
@@ -5691,22 +5692,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -7201,15 +7202,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100A5449C7DA0653B43B45B271FDE516BCC" ma:contentTypeVersion="13" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="59d2886a4f66b07fc9a50c10d3bd6911">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="217f8f20-bf48-4416-957b-cca9c70fab02" xmlns:ns4="ae129805-36a1-4c91-b4ab-5c904e77d8e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aeee7d687ae4e1ff705cc36f50539a35" ns3:_="" ns4:_="">
     <xsd:import namespace="217f8f20-bf48-4416-957b-cca9c70fab02"/>
@@ -7432,6 +7424,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7439,14 +7440,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C476BE5-FA46-4D5F-B7DA-C3A8FC03288F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57994092-00EF-4702-B9D4-6279834B3B6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7465,6 +7458,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C476BE5-FA46-4D5F-B7DA-C3A8FC03288F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{417350A3-550A-403C-8481-844976CFF583}">
   <ds:schemaRefs>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syedm\Desktop\Team14Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14843E59-E439-4921-943C-ACC8F09A28C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F3762E-B368-4DFB-A478-93F6E2F51D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>Product Backlog - IL Marino(List of your features)</t>
   </si>
@@ -177,10 +177,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Database is ready and functional with Read,Update,Delete and Create. Basic JavaScript Formvalidation also added to Reservation and Feedback pages, Now working on a php fucntion to send an email to admin when  a reservation is made.</t>
-  </si>
-  <si>
-    <t>Partially Done</t>
+    <t>Database is ready and functional with Read,Update,Delete and Create. Basic JavaScript Formvalidation also added to Reservation and Feedback pages, Added a basic php login page for admin to login into portal and manage resrvations and read feedback.</t>
   </si>
 </sst>
 </file>
@@ -5685,7 +5682,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5788,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -7194,18 +7191,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7432,18 +7429,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{417350A3-550A-403C-8481-844976CFF583}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C476BE5-FA46-4D5F-B7DA-C3A8FC03288F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C476BE5-FA46-4D5F-B7DA-C3A8FC03288F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{417350A3-550A-403C-8481-844976CFF583}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
